--- a/reliability_testing/SL_SEM_index_drop_criteria.xlsx
+++ b/reliability_testing/SL_SEM_index_drop_criteria.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balin\Documents\GitHub\lendulet_language_SL\reliability_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\lendulet_language_SL\reliability_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11CB2E-4CE5-4AC9-B415-054E3111D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CFB48-A226-4502-8356-E2A16F0623D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E1E9E842-800C-4D87-8468-3F2F5CD6E35C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E1E9E842-800C-4D87-8468-3F2F5CD6E35C}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -377,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,20 +686,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A07F2F-24ED-4FD7-90C7-24649F79C649}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -758,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -793,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -817,7 +832,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -852,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -887,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -914,7 +929,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -949,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -976,7 +991,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1091,7 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1191,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1288,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1315,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1342,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1471,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1495,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1519,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1546,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1570,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1594,7 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
@@ -1770,7 +1785,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>55</v>
       </c>
@@ -1896,7 +1911,7 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +1935,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
@@ -1944,7 +1959,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>55</v>
       </c>
@@ -1968,7 +1983,7 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>55</v>
       </c>
@@ -1992,7 +2007,7 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>55</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2066,7 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G47">
         <f>SUM(G2:G46)</f>
         <v>45</v>
@@ -2109,17 +2124,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F23:F34 F1:F20 G1">
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="yes">
-      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F23:F34 F2:F20">
     <cfRule type="colorScale" priority="31">
       <colorScale>
@@ -2132,6 +2136,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1 F1:F20 F23:F34">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
